--- a/any-data/extenal-resource/template.xlsx
+++ b/any-data/extenal-resource/template.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">orderLevel</t>
   </si>
   <si>
-    <t xml:space="preserve">rootNode</t>
+    <t xml:space="preserve">parentNode</t>
   </si>
   <si>
     <t xml:space="preserve">subNode</t>
@@ -49,6 +49,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -70,6 +71,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,14 +152,14 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
